--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Canu/Eugène_Canu.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Canu/Eugène_Canu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Canu</t>
+          <t>Eugène_Canu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Canu est un biologiste marin et homme politique français né le 11 septembre 1864 à Trith-Saint-Léger (Nord) et mort le 6 janvier 1952 à Boulogne-sur-Mer (Pas-de-Calais).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Canu</t>
+          <t>Eugène_Canu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une licence obtenu en 1883 à l’université de Lille, il commence vers 1884 des études sur les copépodes à la station marine de Wimeureux  sous la direction d' Alfred Giard. Il travaille principalement à Wimereux mais également à Lille puis à Paris à partir de 1888. Il soutient une thèse intitulée Copépodes du boulonnais, morphologie, embryologie, taxonomie et publie de nombreux articles scientifiques.
 A partir de 1891, il travaille à  la station aquicole, inaugurée en 1883 par Henri Émile Sauvage, de Boulogne-sur-mer dans le Pas-de-Calais. Il est directeur de la station aquicole de 1894 à 1902. Armateur à Boulogne-sur-Mer en 1903, il est président du syndicat des armateurs et membre du comité consultatif des pêches maritimes. 
-Conseiller municipal de Boulogne-sur-Mer en 1900,  il est conseiller d'arrondissement en 1908, conseiller général en 1912 et président du conseil général du Pas-de-Calais de 1928 à 1934. Il est député du Pas-de-Calais de 1928 à 1932, inscrit au groupe radical-socialiste  puis maire de Boulogne-sur-mer de 1935 à 1940[1].
+Conseiller municipal de Boulogne-sur-Mer en 1900,  il est conseiller d'arrondissement en 1908, conseiller général en 1912 et président du conseil général du Pas-de-Calais de 1928 à 1934. Il est député du Pas-de-Calais de 1928 à 1932, inscrit au groupe radical-socialiste  puis maire de Boulogne-sur-mer de 1935 à 1940.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Canu</t>
+          <t>Eugène_Canu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur
  Officier de l'ordre du Mérite maritime</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Canu</t>
+          <t>Eugène_Canu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Canu E., 1888. Les Copépodes libres marins du Boulonnais. Doin.
-Canu E., 1892. Les Copépodes du Boulonnais: Morphologie, embryologie, Taxonomie. Thèse présentée à la faculté des sciences des Paris[2].
+Canu E., 1892. Les Copépodes du Boulonnais: Morphologie, embryologie, Taxonomie. Thèse présentée à la faculté des sciences des Paris.
 Canu E., 1893. Un Copépode ascomyzontide sur une algue pélagique. Annales de la Station Aquicole de Boulogne-sur-Mer.
 Canu E., 1894. Notes de biologie marine, fauniques ou éthologiques. Station aquicole.
 Canu E., Gadeau de Kerville H., 1898. Note sur les Copépodes et les Ostracodes marins des côtes de Normandie. Recherches sur les faunes
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Canu</t>
+          <t>Eugène_Canu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">« Eugène Canu », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]
 Sur les autres projets Wikimedia :
